--- a/src/tests/option-clothes-home.test-cases.xlsx
+++ b/src/tests/option-clothes-home.test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/JibungotoPlanet-backend/src/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17656254-133E-AE4B-9BC6-931C55AC23C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1226214-3584-EB42-90B6-BD24AB15F2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7640" yWindow="2280" windowWidth="40760" windowHeight="23140" activeTab="1" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
   </bookViews>
@@ -438,7 +438,7 @@
     <rPh sb="10" eb="12">
       <t>ワリアイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>都市ガスのうち冷暖房分の割合</t>
@@ -451,7 +451,7 @@
     <rPh sb="12" eb="14">
       <t>ワリアイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロパンガスのうち冷暖房分の割合</t>
@@ -461,7 +461,7 @@
     <rPh sb="14" eb="16">
       <t>ワリアイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>灯油のうち冷暖房分の割合</t>
@@ -474,7 +474,7 @@
     <rPh sb="10" eb="12">
       <t>ワリアイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>追加質問で算出した「厚着による暖房削減率」</t>
@@ -493,7 +493,7 @@
     <rPh sb="17" eb="20">
       <t>サクゲンリツ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>↑各エネルギー消費量のうち冷暖房分が削減率の分だけ削減される</t>
@@ -515,7 +515,7 @@
     <rPh sb="25" eb="27">
       <t>サクゲン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -988,6 +988,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -997,13 +1004,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -1610,7 +1610,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1664,11 +1664,11 @@
       <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
@@ -1680,7 +1680,7 @@
       <c r="C2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="41">
         <v>12.332685267698961</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1704,9 +1704,9 @@
       <c r="K2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="8" t="s">
@@ -1718,7 +1718,7 @@
       <c r="C3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="42">
         <v>2.6673147323010395</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1756,7 +1756,7 @@
       <c r="C4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="42">
         <v>1.9614220396155515</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1780,7 +1780,7 @@
       <c r="K4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="50"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="36"/>
       <c r="N4" s="30"/>
     </row>
@@ -1794,7 +1794,7 @@
       <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="42">
         <v>16.995171613521574</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1818,7 +1818,7 @@
       <c r="K5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="50"/>
+      <c r="L5" s="47"/>
       <c r="M5" s="36"/>
       <c r="N5" s="30"/>
     </row>
@@ -1832,7 +1832,7 @@
       <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="43">
         <v>3257.8044473499381</v>
       </c>
       <c r="E6" s="8" t="s">

--- a/src/tests/option-clothes-home.test-cases.xlsx
+++ b/src/tests/option-clothes-home.test-cases.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/JibungotoPlanet-backend/src/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1226214-3584-EB42-90B6-BD24AB15F2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB06F32-CB09-8845-BCAC-57DC4A537797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="2280" windowWidth="40760" windowHeight="23140" activeTab="1" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="6" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="answers" sheetId="44" r:id="rId1"/>
     <sheet name="clothes-home01" sheetId="2" r:id="rId2"/>
+    <sheet name="clothes-home02" sheetId="45" r:id="rId3"/>
+    <sheet name="clothes-home03" sheetId="46" r:id="rId4"/>
+    <sheet name="clothes-home04" sheetId="47" r:id="rId5"/>
+    <sheet name="clothes-home05" sheetId="48" r:id="rId6"/>
+    <sheet name="clothes-home06" sheetId="49" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="112">
   <si>
     <t>case</t>
     <phoneticPr fontId="1"/>
@@ -516,6 +521,65 @@
       <t>サクゲン</t>
     </rPh>
     <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>housingInsulationFirstKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no-insulation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes-home02</t>
+  </si>
+  <si>
+    <t>clothes-home02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes-home03</t>
+  </si>
+  <si>
+    <t>clothes-home03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes-home04</t>
+  </si>
+  <si>
+    <t>clothes-home04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes-home05</t>
+  </si>
+  <si>
+    <t>clothes-home05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes-home06</t>
+  </si>
+  <si>
+    <t>clothes-home06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -626,7 +690,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,6 +712,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,7 +990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,6 +1073,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1327,10 +1400,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1596,6 +1669,1266 @@
       </c>
       <c r="F14" s="2"/>
     </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="19">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1">
+        <v>750</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1">
+        <v>200</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="51"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="19">
+        <v>2</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="1">
+        <v>750</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="1">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1">
+        <v>200</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="51"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="19">
+        <v>2</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="1">
+        <v>750</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="1">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="1">
+        <v>200</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="51"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="19">
+        <v>2</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="1">
+        <v>750</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="1">
+        <v>15</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="1">
+        <v>200</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="51"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="19">
+        <v>2</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="1">
+        <v>750</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="1">
+        <v>15</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="1">
+        <v>200</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="51"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1609,7 +2942,7 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -2515,4 +3848,4579 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9473405A-CB55-E647-AF8C-7A8561C5B1E0}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="41">
+        <v>12.332685267698961</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="42">
+        <v>2.6673147323010395</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="47"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" thickBot="1">
+      <c r="A5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="42">
+        <v>16.995171613521574</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="47"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="30"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="43">
+        <v>3257.8044473499381</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="37">
+        <v>0.12776293417537041</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="32">
+        <v>518.99276138587948</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0.23443223443223443</v>
+      </c>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="37">
+        <v>8.2599118942731281E-2</v>
+      </c>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1409.461250267485</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0.77177914110429446</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="34">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="37">
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="22">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="24">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.63431981113992997</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="24">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{18B13F6A-67D3-0044-B5A7-4F1A631A02C5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{811AAD96-3DBB-064E-A265-E258D48B741E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{18B13F6A-67D3-0044-B5A7-4F1A631A02C5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{811AAD96-3DBB-064E-A265-E258D48B741E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D12:D21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90669859-1F38-C843-AF78-EBC8DE8FF3E7}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="41">
+        <v>12.332685267698961</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="42">
+        <v>2.6673147323010395</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="47"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" thickBot="1">
+      <c r="A5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="42">
+        <v>16.995171613521574</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="47"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="30"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="43">
+        <v>3257.8044473499381</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="37">
+        <v>0.12776293417537041</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="32">
+        <v>518.99276138587948</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0.23443223443223443</v>
+      </c>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="37">
+        <v>8.2599118942731281E-2</v>
+      </c>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1409.461250267485</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0.77177914110429446</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="34">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="37">
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="22">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="24">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.63431981113992997</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="24">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{64320DB7-F226-494E-991C-F370CC07FFD5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2C11D990-ED4E-594D-B579-6E243F0EF84C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{64320DB7-F226-494E-991C-F370CC07FFD5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2C11D990-ED4E-594D-B579-6E243F0EF84C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D12:D21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C64FFC3-CABE-1F4F-B0AC-B93C5B4B2324}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="41">
+        <v>12.332685267698961</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="42">
+        <v>2.6673147323010395</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="47"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" thickBot="1">
+      <c r="A5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="42">
+        <v>16.995171613521574</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="47"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="30"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="43">
+        <v>3345.5331699888602</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="37">
+        <v>0.12776293417537041</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="32">
+        <v>545.84444831287726</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0.23443223443223443</v>
+      </c>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="37">
+        <v>8.2599118942731281E-2</v>
+      </c>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1724.1758851337427</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0.77177914110429446</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="34">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="37">
+        <v>-0.19999999999999998</v>
+      </c>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="22">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="24">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.63431981113992997</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="24">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3CE09BE7-E819-1648-A96E-82789B8F9A6C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2DD7E601-A11F-B24E-BB64-5E0CE43ED0ED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3CE09BE7-E819-1648-A96E-82789B8F9A6C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2DD7E601-A11F-B24E-BB64-5E0CE43ED0ED}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D12:D21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EEBA84-4F12-EA4B-99F9-C89BF503A1AC}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="41">
+        <v>12.332685267698961</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="42">
+        <v>2.6673147323010395</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="47"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" thickBot="1">
+      <c r="A5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="42">
+        <v>16.995171613521574</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="47"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="30"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="43">
+        <v>3389.397531308321</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="37">
+        <v>0.12776293417537041</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="32">
+        <v>559.2702917763761</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0.23443223443223443</v>
+      </c>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="37">
+        <v>8.2599118942731281E-2</v>
+      </c>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1881.5332025668715</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0.77177914110429446</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="34">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="37">
+        <v>-9.9999999999999992E-2</v>
+      </c>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="22">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="24">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.63431981113992997</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="24">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{14750DB1-60D9-0842-B145-C8C59B015197}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F61ADF49-0929-994D-9810-B83C5169BB45}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{14750DB1-60D9-0842-B145-C8C59B015197}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F61ADF49-0929-994D-9810-B83C5169BB45}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D12:D21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF51733D-0D0C-D749-8D96-B346A31AA077}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="41">
+        <v>12.332685267698961</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="42">
+        <v>2.6673147323010395</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="47"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" thickBot="1">
+      <c r="A5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="42">
+        <v>16.995171613521574</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="47"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="30"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="43">
+        <v>3257.8044473499381</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="37">
+        <v>0.12776293417537041</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="32">
+        <v>518.99276138587948</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0.23443223443223443</v>
+      </c>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="37">
+        <v>8.2599118942731281E-2</v>
+      </c>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1409.461250267485</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0.77177914110429446</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="34">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="37">
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="22">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="24">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.63431981113992997</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="24">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D5ADEA52-6DA7-464C-9D17-DD9F62B2C527}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0B4F2364-207F-C349-A8C1-4CDF4692C3DD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D5ADEA52-6DA7-464C-9D17-DD9F62B2C527}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0B4F2364-207F-C349-A8C1-4CDF4692C3DD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D12:D21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>